--- a/HH_Projects/05_Economic_Indices/Data_Files/Source_Files/Bloomberg_Eco_Flags.xlsx
+++ b/HH_Projects/05_Economic_Indices/Data_Files/Source_Files/Bloomberg_Eco_Flags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Job\GitHub Repository\HH_Codebase\HH_Projects\05_Economic_Indices\Data_Files\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB1203-85F4-4722-872D-53F9BB48FA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA3C2F-BA6C-4861-A450-E87F81144FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18469,27 +18469,27 @@
         <v>667</v>
       </c>
       <c r="B24" s="20">
-        <f>SUM(B20:B23)</f>
+        <f t="shared" ref="B24:G24" si="0">SUM(B20:B23)</f>
         <v>10</v>
       </c>
       <c r="C24" s="20">
-        <f>SUM(C20:C23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D24" s="20">
-        <f>SUM(D20:D23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E24" s="20">
-        <f>SUM(E20:E23)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F24" s="20">
-        <f>SUM(F20:F23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G24" s="11">
-        <f>SUM(G20:G23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" s="20">
@@ -18677,27 +18677,27 @@
         <v>667</v>
       </c>
       <c r="B31" s="11">
-        <f>SUM(B27:B30)</f>
+        <f t="shared" ref="B31:G31" si="1">SUM(B27:B30)</f>
         <v>0</v>
       </c>
       <c r="C31" s="11">
-        <f>SUM(C27:C30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D31" s="11">
-        <f>SUM(D27:D30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="11">
-        <f>SUM(E27:E30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <f>SUM(F27:F30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="11">
-        <f>SUM(G27:G30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="11">
